--- a/z.ERP/trunk/z.ERP.Web/File/Template/商户租金经营状况导出.xlsx
+++ b/z.ERP/trunk/z.ERP.Web/File/Template/商户租金经营状况导出.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FEE813-AC6C-45BD-9E66-95A343982D2B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2875B5BC-FC06-4B96-8101-A479907345AC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -78,35 +78,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=MerchantBusinessStatus.NIANYUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=MerchantBusinessStatus.AREA_RENTABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=MerchantBusinessStatus.MUST_MONEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;=MerchantBusinessStatus.TCZJ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=MerchantBusinessStatus.PAID_MONEY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&amp;=MerchantBusinessStatus.AMOUNT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&amp;=MerchantBusinessStatus.AMOUNT_AREA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>&amp;=MerchantBusinessStatus.AREA_MONEY</t>
+    <t>&amp;=MerchantBusinessStatus.AREA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=MerchantBusinessStatus.YEARMONTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=MerchantBusinessStatus.JCZJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=MerchantBusinessStatus.SJZJ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=MerchantBusinessStatus.BX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&amp;=MerchantBusinessStatus.ZSB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,21 +435,25 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.25" customWidth="1"/>
-    <col min="2" max="2" width="10.375" customWidth="1"/>
-    <col min="3" max="3" width="18.5" customWidth="1"/>
-    <col min="4" max="4" width="11.375" customWidth="1"/>
-    <col min="5" max="5" width="11.25" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="14.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.5546875" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -484,7 +488,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -495,22 +499,22 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" t="s">
         <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
       </c>
       <c r="J2" t="s">
         <v>20</v>
